--- a/data/Other/CCDF_ClueLayout.xlsx
+++ b/data/Other/CCDF_ClueLayout.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\School\Fall 2016\Software Engineering\My Workspace\ClueGameCCDF\data\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\My Documents\CSCI306\ClueGameCCDF\data\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="37">
   <si>
     <t>E</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Adjacency list inside rooms</t>
   </si>
   <si>
-    <t>Door directions</t>
-  </si>
-  <si>
     <t>Closet</t>
   </si>
   <si>
@@ -132,13 +129,19 @@
   </si>
   <si>
     <t>Test Targets</t>
+  </si>
+  <si>
+    <t>Walkway  Adj Test</t>
+  </si>
+  <si>
+    <t>Door directions Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +149,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,13 +207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0005C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,25 +251,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,6 +281,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0005C0"/>
       <color rgb="FF9966FF"/>
     </mruColors>
   </colors>
@@ -543,13 +562,14 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection sqref="A1:Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="23" width="3.85546875" customWidth="1"/>
     <col min="24" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -627,7 +647,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -645,10 +665,10 @@
       <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="12" t="s">
@@ -678,10 +698,10 @@
       <c r="R2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U2" s="12" t="s">
@@ -693,7 +713,7 @@
       <c r="W2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="Y2">
@@ -722,7 +742,7 @@
       <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -758,7 +778,7 @@
       <c r="S3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="U3" s="12" t="s">
@@ -787,7 +807,7 @@
       <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -796,10 +816,10 @@
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -835,10 +855,10 @@
       <c r="S4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="T4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="V4" s="12" t="s">
@@ -873,46 +893,46 @@
       <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="H5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U5" s="12" t="s">
@@ -941,7 +961,7 @@
       <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -950,58 +970,58 @@
       <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="H6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="18" t="s">
         <v>2</v>
       </c>
       <c r="Y6">
@@ -1012,28 +1032,28 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="12" t="s">
@@ -1045,7 +1065,7 @@
       <c r="L7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -1057,10 +1077,10 @@
       <c r="P7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="Q7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="12" t="s">
@@ -1089,28 +1109,28 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="B8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -1134,10 +1154,10 @@
       <c r="P8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="S8" s="12" t="s">
@@ -1172,7 +1192,7 @@
       <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -1184,10 +1204,10 @@
       <c r="G9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="12" t="s">
@@ -1208,16 +1228,16 @@
       <c r="O9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="16" t="s">
+      <c r="Q9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="T9" s="12" t="s">
@@ -1226,13 +1246,13 @@
       <c r="U9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="1" t="s">
+      <c r="V9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="Y9">
@@ -1258,13 +1278,13 @@
       <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -1285,13 +1305,13 @@
       <c r="O10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="P10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -1303,13 +1323,13 @@
       <c r="U10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="W10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="X10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="Y10">
@@ -1335,13 +1355,13 @@
       <c r="F11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -1365,10 +1385,10 @@
       <c r="P11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="Q11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="S11" s="12" t="s">
@@ -1380,7 +1400,7 @@
       <c r="U11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="W11" s="12" t="s">
@@ -1403,7 +1423,7 @@
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1415,10 +1435,10 @@
       <c r="G12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="12" t="s">
@@ -1430,7 +1450,7 @@
       <c r="L12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="19" t="s">
         <v>7</v>
       </c>
       <c r="N12" s="12" t="s">
@@ -1442,10 +1462,10 @@
       <c r="P12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="1" t="s">
+      <c r="Q12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="S12" s="12" t="s">
@@ -1457,7 +1477,7 @@
       <c r="U12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="W12" s="12" t="s">
@@ -1474,67 +1494,67 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="1" t="s">
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="W13" s="12" t="s">
@@ -1551,70 +1571,70 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W14" s="10" t="s">
+      <c r="B14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="17" t="s">
         <v>19</v>
       </c>
       <c r="X14" s="12" t="s">
@@ -1628,70 +1648,70 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="W15" s="3" t="s">
+      <c r="B15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="14" t="s">
         <v>19</v>
       </c>
       <c r="X15" s="12" t="s">
@@ -1711,16 +1731,16 @@
       <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -1735,13 +1755,13 @@
       <c r="K16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="15" t="s">
         <v>1</v>
       </c>
       <c r="O16" s="12" t="s">
@@ -1756,10 +1776,10 @@
       <c r="R16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1" t="s">
+      <c r="S16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U16" s="12" t="s">
@@ -1797,7 +1817,7 @@
       <c r="F17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -1833,10 +1853,10 @@
       <c r="R17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="S17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U17" s="12" t="s">
@@ -1874,7 +1894,7 @@
       <c r="F18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -1892,7 +1912,7 @@
       <c r="L18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="15" t="s">
         <v>0</v>
       </c>
       <c r="N18" s="12" t="s">
@@ -1910,10 +1930,10 @@
       <c r="R18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="S18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U18" s="12" t="s">
@@ -1951,7 +1971,7 @@
       <c r="F19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -1987,10 +2007,10 @@
       <c r="R19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T19" s="1" t="s">
+      <c r="S19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U19" s="12" t="s">
@@ -2028,7 +2048,7 @@
       <c r="F20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -2046,7 +2066,7 @@
       <c r="L20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="11" t="s">
         <v>0</v>
       </c>
       <c r="N20" s="12" t="s">
@@ -2064,10 +2084,10 @@
       <c r="R20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="1" t="s">
+      <c r="S20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U20" s="12" t="s">
@@ -2105,7 +2125,7 @@
       <c r="F21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -2141,10 +2161,10 @@
       <c r="R21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="S21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U21" s="12" t="s">
@@ -2182,7 +2202,7 @@
       <c r="F22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -2218,10 +2238,10 @@
       <c r="R22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T22" s="1" t="s">
+      <c r="S22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U22" s="12" t="s">
@@ -2259,7 +2279,7 @@
       <c r="F23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -2292,13 +2312,13 @@
       <c r="Q23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="R23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T23" s="1" t="s">
+      <c r="R23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="18" t="s">
         <v>2</v>
       </c>
       <c r="U23" s="12" t="s">
@@ -2389,8 +2409,8 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>32</v>
+      <c r="A25" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -2399,56 +2419,56 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="8"/>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/Other/CCDF_ClueLayout.xlsx
+++ b/data/Other/CCDF_ClueLayout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\My Documents\CSCI306\ClueGameCCDF\data\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\School\Fall 2016\Software Engineering\My Workspace\ClueGameCCDF\data\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y35"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
